--- a/documents/schedule-WBS.xlsx
+++ b/documents/schedule-WBS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://matsusaka-my.sharepoint.com/personal/100973_matsusaka_co_jp/Documents/大学講義/サンプルソース/mu-psd00/documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\伊藤　友大\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="13_ncr:1_{7FA29082-0DE7-4429-890C-F70E2EF5F901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{925BFFEA-5795-48DF-9B06-684C92DDB52B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98E349B-630A-4E85-9DA5-EDC7B049E753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{1AFF4B30-C86C-4170-BCA2-896EFE988811}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1AFF4B30-C86C-4170-BCA2-896EFE988811}"/>
   </bookViews>
   <sheets>
     <sheet name="スケジュール" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="55">
   <si>
     <t>プロジェクトスケジュール</t>
     <phoneticPr fontId="1"/>
@@ -416,10 +407,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>■</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>フロントエンド　開発＆単体テスト</t>
     <rPh sb="8" eb="10">
       <t>カイハツ</t>
@@ -457,13 +444,56 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>検索API作成</t>
+    <t>■</t>
+  </si>
+  <si>
+    <t>伊藤友大</t>
     <rPh sb="0" eb="2">
-      <t>ケンサク</t>
-    </rPh>
+      <t>イトウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>トモ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメントの有害判定</t>
     <rPh sb="5" eb="7">
-      <t>サクセイ</t>
-    </rPh>
+      <t>ユウガイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>□</t>
+  </si>
+  <si>
+    <t>コメントの有害判定入力画面</t>
+    <rPh sb="5" eb="7">
+      <t>ユウガイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長谷川</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -724,9 +754,6 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -741,6 +768,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -760,9 +790,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -800,7 +830,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -906,7 +936,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1048,7 +1078,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1058,96 +1088,96 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6B027D8-570E-4AD0-B3A3-6E87E9157CAD}">
   <dimension ref="A1:AF35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.125" customWidth="1"/>
-    <col min="4" max="4" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="32" width="4.125" style="12" customWidth="1"/>
+    <col min="2" max="3" width="5.08203125" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="13" max="32" width="4.08203125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A4" s="21" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="22" t="s">
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="18" t="s">
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18" t="s">
+      <c r="N4" s="23"/>
+      <c r="O4" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18" t="s">
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18" t="s">
+      <c r="R4" s="23"/>
+      <c r="S4" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18" t="s">
+      <c r="T4" s="23"/>
+      <c r="U4" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18" t="s">
+      <c r="V4" s="23"/>
+      <c r="W4" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="18" t="s">
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="Z4" s="18"/>
-      <c r="AA4" s="18" t="s">
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="AB4" s="18"/>
-      <c r="AC4" s="18" t="s">
+      <c r="AB4" s="23"/>
+      <c r="AC4" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="AD4" s="18"/>
-      <c r="AE4" s="18" t="s">
+      <c r="AD4" s="23"/>
+      <c r="AE4" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="AF4" s="18"/>
-    </row>
-    <row r="5" spans="1:32" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="23"/>
+      <c r="AF4" s="23"/>
+    </row>
+    <row r="5" spans="1:32" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A5" s="22"/>
       <c r="B5" s="10" t="s">
         <v>2</v>
       </c>
@@ -1157,7 +1187,7 @@
       <c r="D5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="23"/>
+      <c r="E5" s="22"/>
       <c r="F5" s="10" t="s">
         <v>8</v>
       </c>
@@ -1240,7 +1270,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:32" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="6">
         <v>1</v>
       </c>
@@ -1278,7 +1308,7 @@
       <c r="AE6" s="14"/>
       <c r="AF6" s="14"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -1288,7 +1318,7 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="1" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="F7" s="5">
         <v>45538</v>
@@ -1312,13 +1342,13 @@
       <c r="L7" s="1">
         <v>0.5</v>
       </c>
-      <c r="M7" s="15" t="s">
-        <v>44</v>
-      </c>
+      <c r="M7" s="15"/>
       <c r="N7" s="15"/>
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
+      <c r="Q7" s="15" t="s">
+        <v>48</v>
+      </c>
       <c r="R7" s="15"/>
       <c r="S7" s="15"/>
       <c r="T7" s="15"/>
@@ -1335,7 +1365,7 @@
       <c r="AE7" s="15"/>
       <c r="AF7" s="15"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -1368,12 +1398,12 @@
         <v>0.5</v>
       </c>
       <c r="M8" s="15"/>
-      <c r="N8" s="15" t="s">
-        <v>44</v>
-      </c>
+      <c r="N8" s="15"/>
       <c r="O8" s="15"/>
       <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
+      <c r="Q8" s="15" t="s">
+        <v>48</v>
+      </c>
       <c r="R8" s="15"/>
       <c r="S8" s="15"/>
       <c r="T8" s="15"/>
@@ -1390,7 +1420,7 @@
       <c r="AE8" s="15"/>
       <c r="AF8" s="15"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>4</v>
       </c>
@@ -1428,7 +1458,7 @@
       <c r="AE9" s="15"/>
       <c r="AF9" s="15"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>5</v>
       </c>
@@ -1466,7 +1496,7 @@
       <c r="AE10" s="15"/>
       <c r="AF10" s="15"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>6</v>
       </c>
@@ -1502,12 +1532,12 @@
       </c>
       <c r="M11" s="15"/>
       <c r="N11" s="15"/>
-      <c r="O11" s="15" t="s">
-        <v>44</v>
-      </c>
+      <c r="O11" s="15"/>
       <c r="P11" s="15"/>
       <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
+      <c r="R11" s="15" t="s">
+        <v>51</v>
+      </c>
       <c r="S11" s="15"/>
       <c r="T11" s="15"/>
       <c r="U11" s="15"/>
@@ -1523,14 +1553,14 @@
       <c r="AE11" s="15"/>
       <c r="AF11" s="15"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>8</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
       <c r="D12" s="4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>21</v>
@@ -1561,9 +1591,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
       <c r="P12" s="15"/>
-      <c r="Q12" s="15" t="s">
-        <v>44</v>
-      </c>
+      <c r="Q12" s="15"/>
       <c r="R12" s="15"/>
       <c r="S12" s="15"/>
       <c r="T12" s="15"/>
@@ -1580,7 +1608,7 @@
       <c r="AE12" s="15"/>
       <c r="AF12" s="15"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -1618,17 +1646,17 @@
       <c r="AE13" s="15"/>
       <c r="AF13" s="15"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>10</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
       <c r="D14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="F14" s="5">
         <v>45539</v>
@@ -1650,12 +1678,12 @@
       <c r="L14" s="1"/>
       <c r="M14" s="15"/>
       <c r="N14" s="15"/>
-      <c r="O14" s="15" t="s">
-        <v>43</v>
-      </c>
+      <c r="O14" s="15"/>
       <c r="P14" s="15"/>
       <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
+      <c r="R14" s="15" t="s">
+        <v>52</v>
+      </c>
       <c r="S14" s="15"/>
       <c r="T14" s="15"/>
       <c r="U14" s="15"/>
@@ -1671,12 +1699,12 @@
       <c r="AE14" s="15"/>
       <c r="AF14" s="15"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
@@ -1709,7 +1737,7 @@
       <c r="AE15" s="15"/>
       <c r="AF15" s="15"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -1747,7 +1775,7 @@
       <c r="AE16" s="15"/>
       <c r="AF16" s="15"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1796,7 +1824,7 @@
       <c r="AE17" s="15"/>
       <c r="AF17" s="15"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1845,7 +1873,7 @@
       <c r="AE18" s="15"/>
       <c r="AF18" s="15"/>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1894,13 +1922,13 @@
       <c r="AE19" s="15"/>
       <c r="AF19" s="15"/>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>17</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="1"/>
@@ -1932,7 +1960,7 @@
       <c r="AE20" s="15"/>
       <c r="AF20" s="15"/>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -1981,7 +2009,7 @@
       <c r="AE21" s="15"/>
       <c r="AF21" s="15"/>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -2030,7 +2058,7 @@
       <c r="AE22" s="15"/>
       <c r="AF22" s="15"/>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -2079,12 +2107,12 @@
       <c r="AE23" s="15"/>
       <c r="AF23" s="15"/>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>12</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="4"/>
@@ -2117,13 +2145,13 @@
       <c r="AE24" s="15"/>
       <c r="AF24" s="15"/>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>13</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="1"/>
@@ -2155,7 +2183,7 @@
       <c r="AE25" s="15"/>
       <c r="AF25" s="15"/>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>14</v>
       </c>
@@ -2204,7 +2232,7 @@
       <c r="AE26" s="15"/>
       <c r="AF26" s="15"/>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1">
         <v>15</v>
       </c>
@@ -2253,7 +2281,7 @@
       <c r="AE27" s="15"/>
       <c r="AF27" s="15"/>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>16</v>
       </c>
@@ -2302,7 +2330,7 @@
       <c r="AE28" s="15"/>
       <c r="AF28" s="15"/>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2340,7 +2368,7 @@
       <c r="AE29" s="15"/>
       <c r="AF29" s="15"/>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2389,7 +2417,7 @@
       <c r="AE30" s="15"/>
       <c r="AF30" s="15"/>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2438,7 +2466,7 @@
       <c r="AE31" s="15"/>
       <c r="AF31" s="15"/>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2476,7 +2504,7 @@
       <c r="AE32" s="15"/>
       <c r="AF32" s="15"/>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2525,7 +2553,7 @@
       <c r="AE33" s="15"/>
       <c r="AF33" s="15"/>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2574,7 +2602,7 @@
       <c r="AE34" s="15"/>
       <c r="AF34" s="15"/>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2612,12 +2640,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="A4:A5"/>
     <mergeCell ref="Y4:Z4"/>
     <mergeCell ref="AA4:AB4"/>
     <mergeCell ref="AC4:AD4"/>
@@ -2628,6 +2650,12 @@
     <mergeCell ref="S4:T4"/>
     <mergeCell ref="U4:V4"/>
     <mergeCell ref="W4:X4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="A4:A5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2636,6 +2664,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100C0301195AD99F949B67EFEF6F63F1B41" ma:contentTypeVersion="0" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="2458c80059c72884f5a18283ad54fd4d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0200489fc2178a2768dc827bf92ddcc7">
     <xsd:element name="properties">
@@ -2749,33 +2792,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5C529DE-ACDD-4DFF-8718-B7DAD051F3B3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89FF1017-7F48-4528-98C6-6EF5CD6FDC9D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2796,9 +2816,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89FF1017-7F48-4528-98C6-6EF5CD6FDC9D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5C529DE-ACDD-4DFF-8718-B7DAD051F3B3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>